--- a/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 9,41</t>
+          <t>2,15; 9,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,29</t>
+          <t>-5,57; 3,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,42</t>
+          <t>-3,16; 7,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 15,75</t>
+          <t>5,54; 14,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 51,52</t>
+          <t>9,39; 51,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 7,25</t>
+          <t>-11,15; 6,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 21,11</t>
+          <t>-7,8; 19,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,66; 66,98</t>
+          <t>18,18; 60,54</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 7,05</t>
+          <t>0,75; 7,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,52</t>
+          <t>1,7; 9,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,47</t>
+          <t>4,4; 11,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 21,12</t>
+          <t>-0,07; 21,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 35,49</t>
+          <t>2,82; 35,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 18,06</t>
+          <t>3,05; 18,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,49; 29,03</t>
+          <t>10,0; 29,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 95,38</t>
+          <t>-0,46; 94,26</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 10,0</t>
+          <t>-2,98; 9,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 12,41</t>
+          <t>-2,34; 12,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 10,25</t>
+          <t>-3,81; 11,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 5,12</t>
+          <t>-5,34; 5,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 47,95</t>
+          <t>-10,77; 44,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 26,37</t>
+          <t>-4,49; 27,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 23,63</t>
+          <t>-7,27; 26,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 29,64</t>
+          <t>-21,86; 31,4</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,75</t>
+          <t>2,08; 6,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,98</t>
+          <t>-0,4; 5,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,03</t>
+          <t>2,48; 7,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 15,43</t>
+          <t>3,29; 15,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 32,82</t>
+          <t>8,95; 33,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 9,82</t>
+          <t>-0,78; 9,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 20,04</t>
+          <t>5,86; 19,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 65,64</t>
+          <t>12,83; 66,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 9,36</t>
+          <t>2,13; 9,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 3,1</t>
+          <t>-5,92; 3,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 7,09</t>
+          <t>-2,18; 7,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,39; 51,31</t>
+          <t>9,04; 51,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 6,98</t>
+          <t>-11,85; 6,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 19,96</t>
+          <t>-5,37; 20,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,38</t>
+          <t>0,19; 7,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,86</t>
+          <t>2,42; 9,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,47</t>
+          <t>4,3; 11,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 35,86</t>
+          <t>0,33; 34,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 18,93</t>
+          <t>4,35; 19,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 29,09</t>
+          <t>9,92; 29,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 9,43</t>
+          <t>-3,85; 9,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 12,87</t>
+          <t>-2,5; 13,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 11,53</t>
+          <t>-4,54; 10,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 44,92</t>
+          <t>-14,39; 45,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 27,36</t>
+          <t>-4,43; 28,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 26,39</t>
+          <t>-8,78; 23,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,71</t>
+          <t>1,82; 6,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 5,04</t>
+          <t>-0,44; 5,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,9</t>
+          <t>2,42; 7,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,95; 33,06</t>
+          <t>8,16; 32,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,8</t>
+          <t>-0,79; 10,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 19,62</t>
+          <t>5,56; 19,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 9,63</t>
+          <t>1,98; 9,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 3,01</t>
+          <t>-5,84; 3,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 7,11</t>
+          <t>-2,34; 7,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 14,6</t>
+          <t>5,97; 15,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,04; 51,51</t>
+          <t>8,98; 51,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 6,7</t>
+          <t>-11,72; 7,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 20,35</t>
+          <t>-5,46; 21,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,18; 60,54</t>
+          <t>19,66; 66,98</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,15</t>
+          <t>0,46; 7,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 9,95</t>
+          <t>2,07; 9,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 11,75</t>
+          <t>4,11; 11,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 21,07</t>
+          <t>0,41; 21,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 34,27</t>
+          <t>2,53; 35,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 19,15</t>
+          <t>3,62; 18,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 29,99</t>
+          <t>9,49; 29,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 94,26</t>
+          <t>1,6; 95,38</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 9,96</t>
+          <t>-3,2; 10,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 13,18</t>
+          <t>-2,55; 12,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 10,47</t>
+          <t>-4,94; 10,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,29</t>
+          <t>-5,72; 5,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 45,27</t>
+          <t>-11,97; 47,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 28,34</t>
+          <t>-4,56; 26,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 23,94</t>
+          <t>-9,73; 23,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 31,4</t>
+          <t>-22,65; 29,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,79</t>
+          <t>2,08; 6,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 5,17</t>
+          <t>-0,21; 4,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,94</t>
+          <t>2,45; 8,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 15,49</t>
+          <t>3,17; 15,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 32,82</t>
+          <t>8,81; 32,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 10,44</t>
+          <t>-0,42; 9,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 19,63</t>
+          <t>5,79; 20,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,83; 66,88</t>
+          <t>12,77; 65,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,95%</t>
+          <t>41,22%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 15,75</t>
+          <t>6,24; 15,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,66; 66,98</t>
+          <t>20,97; 69,88</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>9,64</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>42,66%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 21,12</t>
+          <t>-0,71; 33,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 95,38</t>
+          <t>-3,24; 153,6</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>-1,78%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 5,12</t>
+          <t>-5,94; 4,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 29,64</t>
+          <t>-24,41; 27,47</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>37,38%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,17; 15,43</t>
+          <t>2,46; 24,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 65,64</t>
+          <t>10,75; 108,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 9,41</t>
+          <t>2,24; 9,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,29</t>
+          <t>-6,07; 3,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,42</t>
+          <t>-2,33; 7,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,24; 15,71</t>
+          <t>6,39; 15,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 51,52</t>
+          <t>10,06; 50,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 7,25</t>
+          <t>-12,21; 6,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 21,11</t>
+          <t>-5,52; 20,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,97; 69,88</t>
+          <t>22,02; 68,79</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 7,05</t>
+          <t>0,36; 7,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,52</t>
+          <t>1,94; 9,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,47</t>
+          <t>4,51; 11,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 33,36</t>
+          <t>-0,76; 29,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 35,49</t>
+          <t>1,45; 35,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,62; 18,06</t>
+          <t>3,44; 17,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,49; 29,03</t>
+          <t>10,41; 29,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 153,6</t>
+          <t>-3,43; 150,06</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 10,0</t>
+          <t>-3,3; 9,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 12,41</t>
+          <t>-2,62; 12,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 10,25</t>
+          <t>-3,98; 11,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 4,56</t>
+          <t>-6,02; 4,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 47,95</t>
+          <t>-11,64; 45,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 26,37</t>
+          <t>-4,61; 27,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 23,63</t>
+          <t>-7,4; 26,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 27,47</t>
+          <t>-25,08; 27,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,75</t>
+          <t>1,83; 6,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 4,98</t>
+          <t>-0,43; 4,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,03</t>
+          <t>2,46; 8,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 24,52</t>
+          <t>2,65; 26,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 32,82</t>
+          <t>8,33; 32,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 9,82</t>
+          <t>-0,72; 9,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 20,04</t>
+          <t>5,7; 20,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,75; 108,71</t>
+          <t>10,99; 117,41</t>
         </is>
       </c>
     </row>
